--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.0261039594636</v>
+        <v>9.163165666666666</v>
       </c>
       <c r="H2">
-        <v>12.0261039594636</v>
+        <v>27.489497</v>
       </c>
       <c r="I2">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="J2">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.338922461374</v>
+        <v>28.86405866666667</v>
       </c>
       <c r="N2">
-        <v>28.338922461374</v>
+        <v>86.59217600000001</v>
       </c>
       <c r="O2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="P2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="Q2">
-        <v>340.8068276196618</v>
+        <v>264.4861513750524</v>
       </c>
       <c r="R2">
-        <v>340.8068276196618</v>
+        <v>2380.375362375472</v>
       </c>
       <c r="S2">
-        <v>0.1547753823132043</v>
+        <v>0.08472831993546066</v>
       </c>
       <c r="T2">
-        <v>0.1547753823132043</v>
+        <v>0.08472831993546068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.0261039594636</v>
+        <v>9.163165666666666</v>
       </c>
       <c r="H3">
-        <v>12.0261039594636</v>
+        <v>27.489497</v>
       </c>
       <c r="I3">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="J3">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.668542475896</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
-        <v>42.668542475896</v>
+        <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="P3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="Q3">
-        <v>513.1363276139136</v>
+        <v>391.0873376772926</v>
       </c>
       <c r="R3">
-        <v>513.1363276139136</v>
+        <v>3519.786039095633</v>
       </c>
       <c r="S3">
-        <v>0.2330377939900615</v>
+        <v>0.1252850967703057</v>
       </c>
       <c r="T3">
-        <v>0.2330377939900615</v>
+        <v>0.1252850967703058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.0261039594636</v>
+        <v>9.163165666666666</v>
       </c>
       <c r="H4">
-        <v>12.0261039594636</v>
+        <v>27.489497</v>
       </c>
       <c r="I4">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="J4">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.5110200944828</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>23.5110200944828</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="P4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="Q4">
-        <v>282.7459718492879</v>
+        <v>218.5471303881079</v>
       </c>
       <c r="R4">
-        <v>282.7459718492879</v>
+        <v>1966.924173492971</v>
       </c>
       <c r="S4">
-        <v>0.128407391941485</v>
+        <v>0.07001172306463174</v>
       </c>
       <c r="T4">
-        <v>0.128407391941485</v>
+        <v>0.07001172306463176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2703408148209</v>
+        <v>12.06704733333333</v>
       </c>
       <c r="H5">
-        <v>11.2703408148209</v>
+        <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="J5">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.338922461374</v>
+        <v>28.86405866666667</v>
       </c>
       <c r="N5">
-        <v>28.338922461374</v>
+        <v>86.59217600000001</v>
       </c>
       <c r="O5">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="P5">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="Q5">
-        <v>319.3893144644682</v>
+        <v>348.3039621627769</v>
       </c>
       <c r="R5">
-        <v>319.3893144644682</v>
+        <v>3134.735659464992</v>
       </c>
       <c r="S5">
-        <v>0.1450487468172377</v>
+        <v>0.1115794130902083</v>
       </c>
       <c r="T5">
-        <v>0.1450487468172377</v>
+        <v>0.1115794130902083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2703408148209</v>
+        <v>12.06704733333333</v>
       </c>
       <c r="H6">
-        <v>11.2703408148209</v>
+        <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="J6">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.668542475896</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
-        <v>42.668542475896</v>
+        <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="P6">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="Q6">
-        <v>480.8890157750099</v>
+        <v>515.0260932623693</v>
       </c>
       <c r="R6">
-        <v>480.8890157750099</v>
+        <v>4635.234839361323</v>
       </c>
       <c r="S6">
-        <v>0.2183928701976031</v>
+        <v>0.1649889620994368</v>
       </c>
       <c r="T6">
-        <v>0.2183928701976031</v>
+        <v>0.1649889620994368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.06704733333333</v>
+      </c>
+      <c r="H7">
+        <v>36.201142</v>
+      </c>
+      <c r="I7">
+        <v>0.3687673822623249</v>
+      </c>
+      <c r="J7">
+        <v>0.3687673822623249</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.85061433333334</v>
+      </c>
+      <c r="N7">
+        <v>71.55184300000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2500194201207672</v>
+      </c>
+      <c r="P7">
+        <v>0.2500194201207672</v>
+      </c>
+      <c r="Q7">
+        <v>287.8064920894118</v>
+      </c>
+      <c r="R7">
+        <v>2590.258428804706</v>
+      </c>
+      <c r="S7">
+        <v>0.09219900707267976</v>
+      </c>
+      <c r="T7">
+        <v>0.09219900707267976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.49244066666667</v>
+      </c>
+      <c r="H8">
+        <v>34.477322</v>
+      </c>
+      <c r="I8">
+        <v>0.3512074779672769</v>
+      </c>
+      <c r="J8">
+        <v>0.351207477967277</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>28.86405866666667</v>
+      </c>
+      <c r="N8">
+        <v>86.59217600000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3025739760541936</v>
+      </c>
+      <c r="P8">
+        <v>0.3025739760541936</v>
+      </c>
+      <c r="Q8">
+        <v>331.7184816258525</v>
+      </c>
+      <c r="R8">
+        <v>2985.466334632672</v>
+      </c>
+      <c r="S8">
+        <v>0.1062662430285246</v>
+      </c>
+      <c r="T8">
+        <v>0.1062662430285246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>11.2703408148209</v>
-      </c>
-      <c r="H7">
-        <v>11.2703408148209</v>
-      </c>
-      <c r="I7">
-        <v>0.4837794317552492</v>
-      </c>
-      <c r="J7">
-        <v>0.4837794317552492</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>23.5110200944828</v>
-      </c>
-      <c r="N7">
-        <v>23.5110200944828</v>
-      </c>
-      <c r="O7">
-        <v>0.2487452066818934</v>
-      </c>
-      <c r="P7">
-        <v>0.2487452066818934</v>
-      </c>
-      <c r="Q7">
-        <v>264.9772093689238</v>
-      </c>
-      <c r="R7">
-        <v>264.9772093689238</v>
-      </c>
-      <c r="S7">
-        <v>0.1203378147404084</v>
-      </c>
-      <c r="T7">
-        <v>0.1203378147404084</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.49244066666667</v>
+      </c>
+      <c r="H9">
+        <v>34.477322</v>
+      </c>
+      <c r="I9">
+        <v>0.3512074779672769</v>
+      </c>
+      <c r="J9">
+        <v>0.351207477967277</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>42.68037399999999</v>
+      </c>
+      <c r="N9">
+        <v>128.041122</v>
+      </c>
+      <c r="O9">
+        <v>0.4474066038250392</v>
+      </c>
+      <c r="P9">
+        <v>0.4474066038250392</v>
+      </c>
+      <c r="Q9">
+        <v>490.5016658261426</v>
+      </c>
+      <c r="R9">
+        <v>4414.514992435284</v>
+      </c>
+      <c r="S9">
+        <v>0.1571325449552966</v>
+      </c>
+      <c r="T9">
+        <v>0.1571325449552967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.49244066666667</v>
+      </c>
+      <c r="H10">
+        <v>34.477322</v>
+      </c>
+      <c r="I10">
+        <v>0.3512074779672769</v>
+      </c>
+      <c r="J10">
+        <v>0.351207477967277</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.85061433333334</v>
+      </c>
+      <c r="N10">
+        <v>71.55184300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2500194201207672</v>
+      </c>
+      <c r="P10">
+        <v>0.2500194201207672</v>
+      </c>
+      <c r="Q10">
+        <v>274.1017700893829</v>
+      </c>
+      <c r="R10">
+        <v>2466.915930804446</v>
+      </c>
+      <c r="S10">
+        <v>0.0878086899834557</v>
+      </c>
+      <c r="T10">
+        <v>0.08780868998345571</v>
       </c>
     </row>
   </sheetData>
